--- a/FixtureBookTest/FixtureTest/Cast/Temp/DatabaseUpdaterTest.xlsx
+++ b/FixtureBookTest/FixtureTest/Cast/Temp/DatabaseUpdaterTest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="147">
   <si>
     <t>A. テストケース</t>
     <phoneticPr fontId="3"/>
@@ -476,6 +476,257 @@
   </si>
   <si>
     <t>FixtureTest\Cast\Temp\DatabaseUpdaterTest.txt</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>xxxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bテストデータクリア条件で存在しないテーブル名を指定した場合は例外が発生する</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Cテストデータで存在しないテーブル名を指定した場合は例外が発生する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>重複データ登録時には例外が発生する</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウフク</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>トウロクジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bテストデータクリア条件で存在しない列名を指定した場合例外が発生する</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>レツメイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Bテストデータクリア条件で不正な列値を指定した場合例外が発生する</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abc%</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bテストデータクリア条件では部分一致指定が可能</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ブブンイッチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>%xyz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>%op%</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>wxyz</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>wxzz</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nopq</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nooq</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>xbcx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Bテストデータクリア条件では部分一致指定が可能_Setup</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ブブンイッチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Bテストデータクリア条件では複数条件指定が可能</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>abc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bテストデータクリア条件では複数条件指定が可能_Setup</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xbcd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDENTITY列に対して明示的に値を設定できる</t>
+    <rPh sb="8" eb="9">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>メイジテキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HasIdentityTable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -971,17 +1222,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="B2:AG101"/>
+  <dimension ref="B2:AG250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="E250" sqref="E250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6"/>
   <cols>
     <col min="1" max="2" width="2.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="2.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
@@ -2053,13 +2304,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="3:5">
+    <row r="97" spans="2:5">
       <c r="C97" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="3:5">
+    <row r="98" spans="2:5">
       <c r="D98" s="6" t="s">
         <v>65</v>
       </c>
@@ -2067,7 +2318,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="99" spans="3:5">
+    <row r="99" spans="2:5">
       <c r="D99" s="7" t="s">
         <v>34</v>
       </c>
@@ -2075,7 +2326,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="3:5">
+    <row r="100" spans="2:5">
       <c r="D100" s="7" t="s">
         <v>88</v>
       </c>
@@ -2083,12 +2334,682 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="3:5">
+    <row r="101" spans="2:5">
       <c r="D101" s="7" t="s">
         <v>66</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" s="1" customFormat="1">
+      <c r="B104" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="C106" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" s="3" customFormat="1">
+      <c r="B108" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="C109" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D109" s="5"/>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="D110" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="D111" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" s="1" customFormat="1">
+      <c r="B113" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="C115" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" s="3" customFormat="1">
+      <c r="B117" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="C118" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D118" s="5"/>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="D119" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="D120" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" s="1" customFormat="1">
+      <c r="B122" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4">
+      <c r="C124" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" s="3" customFormat="1">
+      <c r="B126" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4">
+      <c r="C127" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" s="5"/>
+    </row>
+    <row r="128" spans="2:4">
+      <c r="D128" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4">
+      <c r="D129" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" s="3" customFormat="1">
+      <c r="B131" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4">
+      <c r="C132" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" s="5"/>
+    </row>
+    <row r="133" spans="2:4">
+      <c r="D133" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4">
+      <c r="D134" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4">
+      <c r="D135" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" s="1" customFormat="1">
+      <c r="B137" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4">
+      <c r="C139" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" s="3" customFormat="1">
+      <c r="B141" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4">
+      <c r="C142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" s="5"/>
+    </row>
+    <row r="143" spans="2:4">
+      <c r="D143" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4">
+      <c r="D144" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" s="1" customFormat="1">
+      <c r="B146" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4">
+      <c r="C148" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" s="3" customFormat="1">
+      <c r="B150" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4">
+      <c r="C151" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151" s="5"/>
+    </row>
+    <row r="152" spans="2:4">
+      <c r="D152" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4">
+      <c r="D153" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" s="1" customFormat="1">
+      <c r="B156" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4">
+      <c r="C158" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" s="3" customFormat="1">
+      <c r="B160" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5">
+      <c r="C161" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" s="5"/>
+    </row>
+    <row r="162" spans="2:5">
+      <c r="D162" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5">
+      <c r="D163" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" s="3" customFormat="1">
+      <c r="B165" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5">
+      <c r="C166" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" s="5"/>
+    </row>
+    <row r="167" spans="2:5">
+      <c r="D167" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5">
+      <c r="D168" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5">
+      <c r="D169" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5">
+      <c r="D170" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5">
+      <c r="D171" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5">
+      <c r="D172" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5">
+      <c r="D173" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" s="1" customFormat="1">
+      <c r="B175" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5">
+      <c r="C177" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" s="3" customFormat="1">
+      <c r="B179" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5">
+      <c r="C180" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" s="5"/>
+    </row>
+    <row r="181" spans="2:5">
+      <c r="D181" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5">
+      <c r="D182" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5">
+      <c r="D183" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5">
+      <c r="D184" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" s="3" customFormat="1">
+      <c r="B186" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5">
+      <c r="C187" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" s="5"/>
+    </row>
+    <row r="188" spans="2:5">
+      <c r="D188" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5">
+      <c r="C189" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5">
+      <c r="D190" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5">
+      <c r="C191" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5">
+      <c r="D192" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6">
+      <c r="C193" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6">
+      <c r="D194" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" s="1" customFormat="1">
+      <c r="B196" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6">
+      <c r="C198" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6" s="3" customFormat="1">
+      <c r="B200" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6">
+      <c r="C201" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D201" s="5"/>
+    </row>
+    <row r="202" spans="2:6">
+      <c r="D202" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6">
+      <c r="D203" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" s="3" customFormat="1">
+      <c r="B205" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6">
+      <c r="C206" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D206" s="5"/>
+    </row>
+    <row r="207" spans="2:6">
+      <c r="D207" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6">
+      <c r="D208" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E208" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F208" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6">
+      <c r="D209" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F209" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6">
+      <c r="D210" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F210" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" s="1" customFormat="1">
+      <c r="B212" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6">
+      <c r="C214" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" s="3" customFormat="1">
+      <c r="B216" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6">
+      <c r="C217" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D217" s="5"/>
+    </row>
+    <row r="218" spans="2:6">
+      <c r="D218" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6">
+      <c r="D219" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E219" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" s="3" customFormat="1">
+      <c r="B221" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6">
+      <c r="C222" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D222" s="5"/>
+    </row>
+    <row r="223" spans="2:6">
+      <c r="D223" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6">
+      <c r="C224" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5">
+      <c r="D225" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5">
+      <c r="D226" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" s="1" customFormat="1">
+      <c r="B229" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5">
+      <c r="C231" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" s="3" customFormat="1">
+      <c r="B233" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5">
+      <c r="C234" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D234" s="5"/>
+    </row>
+    <row r="235" spans="2:5">
+      <c r="D235" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5">
+      <c r="D236" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" s="3" customFormat="1">
+      <c r="B238" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5">
+      <c r="C239" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D239" s="5"/>
+    </row>
+    <row r="240" spans="2:5">
+      <c r="D240" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E240" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5">
+      <c r="D241" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E241" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5">
+      <c r="D242" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E242" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5">
+      <c r="D243" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E243" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" s="3" customFormat="1">
+      <c r="B245" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5">
+      <c r="C246" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D246" s="5"/>
+    </row>
+    <row r="247" spans="2:5">
+      <c r="D247" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5">
+      <c r="D248" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E248" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5">
+      <c r="D249" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E249" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5">
+      <c r="D250" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E250" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/FixtureBookTest/FixtureTest/Cast/Temp/DatabaseUpdaterTest.xlsx
+++ b/FixtureBookTest/FixtureTest/Cast/Temp/DatabaseUpdaterTest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="150">
   <si>
     <t>A. テストケース</t>
     <phoneticPr fontId="3"/>
@@ -727,6 +727,48 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名行に記載されている列名は無視される</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>レツメイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テーブル名行に記載されている列名は無視される_Setup</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>レツメイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ムシ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1222,10 +1264,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="B2:AG250"/>
+  <dimension ref="B2:AG284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="E250" sqref="E250"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="C270" sqref="C270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6"/>
@@ -3012,6 +3054,140 @@
         <v>146</v>
       </c>
     </row>
+    <row r="253" spans="2:5" s="1" customFormat="1">
+      <c r="B253" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5">
+      <c r="C255" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" s="3" customFormat="1">
+      <c r="B257" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5">
+      <c r="C258" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D258" s="5"/>
+    </row>
+    <row r="259" spans="2:5">
+      <c r="D259" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5">
+      <c r="D260" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5" s="3" customFormat="1">
+      <c r="B262" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5">
+      <c r="C263" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D263" s="5"/>
+    </row>
+    <row r="264" spans="2:5">
+      <c r="D264" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E264" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5">
+      <c r="D265" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E265" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5" s="1" customFormat="1">
+      <c r="B267" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5">
+      <c r="C269" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5" s="3" customFormat="1">
+      <c r="B271" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5">
+      <c r="C272" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D272" s="5"/>
+      <c r="E272" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4">
+      <c r="D273" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4">
+      <c r="D274" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4" s="3" customFormat="1">
+      <c r="B276" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4">
+      <c r="C277" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D277" s="5"/>
+    </row>
+    <row r="278" spans="2:4">
+      <c r="D278" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4">
+      <c r="D279" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4" s="3" customFormat="1">
+      <c r="B281" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4">
+      <c r="C282" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D282" s="5"/>
+    </row>
+    <row r="283" spans="2:4">
+      <c r="D283" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4">
+      <c r="D284" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
